--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3082165.357636089</v>
+        <v>3187104.587811456</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283198</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8300323.363245656</v>
+        <v>8316640.810306287</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>82.93377084804267</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>230.4013291201996</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.152915820600926</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>70.2030542654316</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>298.4011241571814</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>36.55109356902349</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>58.23870568848253</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>209.7982598277801</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>51.86416110573968</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>126.5388824951718</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>48.37445137896813</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>87.59916920231778</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187898</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176013</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>160.5414768533582</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986279</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.74007641193928</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>48.85497112745678</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>173.5740289795531</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>20.43112068613063</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428084</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>81.54417886827382</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.02223045762</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>40.32853379926536</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.294712846224</v>
+        <v>73.93222849083733</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856566</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>105.9742079424007</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766843</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101218</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>144.7250005831139</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856566</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712566</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892443</v>
+        <v>273.4963050953331</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856566</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.56693137108621</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>104.4564809702492</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>130.9398757025641</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>179.2499669408066</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>40.1538165833283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2089.358425227294</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C2" t="n">
-        <v>1720.395908286883</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D2" t="n">
-        <v>1362.130209680132</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E2" t="n">
-        <v>976.341957081888</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>565.3560522922805</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G2" t="n">
-        <v>150.283602137277</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267228</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267228</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>2866.097597267228</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>2866.097597267228</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y2" t="n">
-        <v>2475.958265291416</v>
+        <v>1267.498902304191</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508012</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291641</v>
+        <v>607.1380332666183</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513957</v>
+        <v>970.4000522258383</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1357.685180822783</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2351.257229895849</v>
+        <v>1400.670222628669</v>
       </c>
       <c r="C4" t="n">
-        <v>2182.321046967942</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="D4" t="n">
-        <v>2032.204407555607</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039848</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541938</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916657</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.82338995286</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348672</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797168</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366697</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>2388.843745890049</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.32286476305</v>
+        <v>2388.843745890049</v>
       </c>
       <c r="U4" t="n">
-        <v>2822.32286476305</v>
+        <v>2099.725408393886</v>
       </c>
       <c r="V4" t="n">
-        <v>2822.32286476305</v>
+        <v>2099.725408393886</v>
       </c>
       <c r="W4" t="n">
-        <v>2532.905694726089</v>
+        <v>1810.308238356926</v>
       </c>
       <c r="X4" t="n">
-        <v>2532.905694726089</v>
+        <v>1582.318687458909</v>
       </c>
       <c r="Y4" t="n">
-        <v>2532.905694726089</v>
+        <v>1582.318687458909</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694473</v>
+        <v>531.4162778577429</v>
       </c>
       <c r="C5" t="n">
-        <v>1491.569348694473</v>
+        <v>531.4162778577429</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>173.1505792509924</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758595</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>441.1652223009123</v>
+        <v>683.7982798220356</v>
       </c>
       <c r="C7" t="n">
-        <v>272.2290393730054</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="D7" t="n">
-        <v>272.2290393730054</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="E7" t="n">
-        <v>272.2290393730054</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>125.3390918750951</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.01298720966</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.5958171727</v>
+        <v>895.7157139915105</v>
       </c>
       <c r="X7" t="n">
-        <v>843.6062662746822</v>
+        <v>683.7982798220356</v>
       </c>
       <c r="Y7" t="n">
-        <v>622.8136871311521</v>
+        <v>683.7982798220356</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1559.116588708439</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3273.217780088221</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3273.217780088221</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3019.687303362058</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2688.624416018487</v>
       </c>
       <c r="W8" t="n">
-        <v>3197.788768583745</v>
+        <v>2335.855760748373</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2335.855760748373</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1945.716428772561</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.8175152271517</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="C10" t="n">
-        <v>362.8175152271517</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="D10" t="n">
-        <v>212.700875814816</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="E10" t="n">
-        <v>212.700875814816</v>
+        <v>469.5889098506453</v>
       </c>
       <c r="F10" t="n">
-        <v>212.700875814816</v>
+        <v>322.698962352735</v>
       </c>
       <c r="G10" t="n">
-        <v>212.700875814816</v>
+        <v>154.9961257274539</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>154.9961257274539</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4996,16 +4998,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.8175152271517</v>
+        <v>617.5020034330385</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168645</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400706</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121636</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578605</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578605</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578605</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578605</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138407</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703105</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913854</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>721.777415831137</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>552.84123290323</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908941</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908941</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908941</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057739</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5476,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138407</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.4258806613768</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400706</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400706</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400706</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>366.9636532421601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578604</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5713,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138407</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5774,28 +5776,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468472</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400706</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400706</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277348</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277348</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>363.7369613277348</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>196.5408620426146</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000584</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138407</v>
+        <v>3738.657110224937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703105</v>
+        <v>3517.864531081407</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192511</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913854</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400706</v>
+        <v>3192.420589669523</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121636</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121636</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121636</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121636</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270435</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138407</v>
+        <v>3594.861633643293</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703105</v>
+        <v>3374.069054499763</v>
       </c>
     </row>
     <row r="26">
@@ -6212,64 +6214,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770307</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780505001</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381642</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E28" t="n">
-        <v>464.505145055771</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578605</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578605</v>
+        <v>211.4566897748909</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,7 +6408,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648818</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750801</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072706</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,64 +6451,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468472</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>3210.485548300424</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.2213777565</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356203</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232844</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408912</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429807</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578605</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,7 +6645,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6652,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1326.656711161545</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084667</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300426</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>3807.864035926978</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>4435.461999481585</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>4654.193497445482</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445482</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558404</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C34" t="n">
-        <v>2646.594662309228</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D34" t="n">
-        <v>2646.594662309228</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>2646.594662309228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024108</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866306</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.25592267304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532174</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388644</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708878</v>
+        <v>3025.224490384403</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429807</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429807</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429807</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429807</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578605</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000584</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518385</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541326</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885523</v>
+        <v>3945.072255293151</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679636</v>
+        <v>3945.072255293151</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642675</v>
+        <v>3655.65508525619</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744658</v>
+        <v>3427.665534358173</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011277</v>
+        <v>3206.872955214643</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,58 +7162,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349513</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.574735228845</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511915</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232844</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232844</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408912</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429807</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578605</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2404.976284215526</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2222.121449870431</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2002.519984893372</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1713.444758237569</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V40" t="n">
-        <v>1458.760270031682</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W40" t="n">
-        <v>1169.343099994722</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X40" t="n">
-        <v>1169.343099994722</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y40" t="n">
-        <v>948.5505208511915</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,52 +7399,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>3087.702309109632</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>764.9868911350341</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797189</v>
+        <v>617.0737975526409</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7673,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>4361.541153371031</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7840,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>14.25823202432872</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>186.4490126143854</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664523</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>65.16817853567895</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.8445769401556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>116.6691671648122</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>6.25795120238422</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>119.8635921600933</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194314</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856563</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>144.1654765207633</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>126.9182872993626</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>23.83108638657406</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>66.36248435538656</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>180.5487903941904</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194366</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>80.9846548059233</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101218</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038818</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>12.68816929391107</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.80831533903559</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>181.727993418995</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>14.48117232036716</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>211.9838267404997</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>726950.7641414206</v>
+        <v>735269.4626429197</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>726950.7641414206</v>
+        <v>735269.4626429197</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>714792.4902389279</v>
+        <v>714792.490238928</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>714792.4902389279</v>
+        <v>714792.490238928</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>714792.4902389279</v>
+        <v>714792.490238928</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>714792.4902389279</v>
+        <v>714792.490238928</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287558</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.274728755</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287557</v>
@@ -26344,13 +26346,13 @@
         <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287557</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810792</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810782</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.2351281079</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756466</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675651</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756495</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756421</v>
+        <v>9337.200356756646</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756497</v>
+        <v>9337.200356756644</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756544</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756544</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756544</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-806791.372785846</v>
+        <v>-626004.2810766187</v>
       </c>
       <c r="C6" t="n">
-        <v>521953.372941747</v>
+        <v>488747.5024993009</v>
       </c>
       <c r="D6" t="n">
-        <v>521953.372941747</v>
+        <v>329326.2325014087</v>
       </c>
       <c r="E6" t="n">
-        <v>270381.0827407363</v>
+        <v>270381.0827407367</v>
       </c>
       <c r="F6" t="n">
+        <v>595793.5445480916</v>
+      </c>
+      <c r="G6" t="n">
+        <v>595793.5445480918</v>
+      </c>
+      <c r="H6" t="n">
+        <v>595793.5445480915</v>
+      </c>
+      <c r="I6" t="n">
+        <v>595793.5445480919</v>
+      </c>
+      <c r="J6" t="n">
+        <v>428188.3667381094</v>
+      </c>
+      <c r="K6" t="n">
+        <v>595793.5445480919</v>
+      </c>
+      <c r="L6" t="n">
+        <v>547499.5745399011</v>
+      </c>
+      <c r="M6" t="n">
+        <v>510738.5166125799</v>
+      </c>
+      <c r="N6" t="n">
+        <v>595793.5445480919</v>
+      </c>
+      <c r="O6" t="n">
+        <v>595793.5445480916</v>
+      </c>
+      <c r="P6" t="n">
         <v>595793.5445480921</v>
-      </c>
-      <c r="G6" t="n">
-        <v>595793.5445480919</v>
-      </c>
-      <c r="H6" t="n">
-        <v>595793.5445480922</v>
-      </c>
-      <c r="I6" t="n">
-        <v>595793.5445480921</v>
-      </c>
-      <c r="J6" t="n">
-        <v>378262.3421508141</v>
-      </c>
-      <c r="K6" t="n">
-        <v>595793.5445480922</v>
-      </c>
-      <c r="L6" t="n">
-        <v>595793.5445480919</v>
-      </c>
-      <c r="M6" t="n">
-        <v>510738.5166125802</v>
-      </c>
-      <c r="N6" t="n">
-        <v>595793.5445480918</v>
-      </c>
-      <c r="O6" t="n">
-        <v>595793.5445480919</v>
-      </c>
-      <c r="P6" t="n">
-        <v>595793.5445480919</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>211.6739935392778</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>155.836609535854</v>
       </c>
     </row>
     <row r="3">
@@ -27540,16 +27542,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>137.2810468259682</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>124.4594060963059</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>56.2819174635016</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>345.3792765032383</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>107.7871025705457</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>15.91139556125705</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>57.32360068243616</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>222.7020862222412</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>96.38056353535265</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>8.753251207520307</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29272,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29509,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>461.100707192745</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647493</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32549,25 +32551,25 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>506.566534435233</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P27" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>652.047896915769</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>202.2352659288684</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786837</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>248.5245325067415</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>353.3934907042769</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>169.2687847673327</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34454,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>403.8524967138027</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>230.9747494877446</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>311.9385926621788</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>302.9297349452399</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243185</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483006</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35577,16 +35579,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35814,16 +35816,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>27.13475084531533</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.985332142731</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36051,16 +36053,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132147</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36525,16 +36527,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790297</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P27" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>509.9138629937507</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>68.26085851453816</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342392</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>114.5501250924112</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>219.4190832899467</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531435</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>272.5107846304694</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>97.0003420734144</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3187104.587811456</v>
+        <v>3183008.94630669</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>119.1056918783347</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>230.4013291201996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>70.2030542654316</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>64.50612826256102</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>36.55109356902349</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>26.73524267227025</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -955,16 +955,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>33.28962109883609</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>209.7982598277801</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>51.86416110573968</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.59916920231778</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>160.5414768533582</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>130.1208074460232</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.5740289795531</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>81.54417886827382</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>116.4636264596498</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>32.27552175740387</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>41.55695577161148</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>73.93222849083733</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>144.7250005831139</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3480,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>273.4963050953331</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>104.4564809702492</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>130.9398757025641</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1267.498902304191</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C2" t="n">
-        <v>898.5363853637798</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D2" t="n">
-        <v>540.2706867570294</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2317.33134125154</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2317.33134125154</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>1986.268453907969</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.22751757712</v>
+        <v>1633.499798637855</v>
       </c>
       <c r="X2" t="n">
-        <v>1500.22751757712</v>
+        <v>1633.499798637855</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.498902304191</v>
+        <v>1633.499798637855</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>607.1380332666183</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>970.4000522258383</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.685180822783</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1400.670222628669</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>1231.734039700762</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>1231.734039700762</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>1231.734039700762</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>1231.734039700762</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2388.843745890049</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2388.843745890049</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2099.725408393886</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>2099.725408393886</v>
+        <v>1571.288414758779</v>
       </c>
       <c r="W4" t="n">
-        <v>1810.308238356926</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X4" t="n">
-        <v>1582.318687458909</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y4" t="n">
-        <v>1582.318687458909</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>531.4162778577429</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C5" t="n">
-        <v>531.4162778577429</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>173.1505792509924</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4564,16 +4564,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2535.3340327716</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2326.588391377424</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2073.007330641604</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2073.007330641604</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182944</v>
+        <v>1720.23867537149</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218646</v>
+        <v>1720.23867537149</v>
       </c>
       <c r="Y5" t="n">
-        <v>918.0161179218646</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.63996629486</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2238.100841080694</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>683.7982798220356</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C7" t="n">
-        <v>514.8620968941287</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D7" t="n">
-        <v>514.8620968941287</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1185.132884028471</v>
+        <v>1602.820240176683</v>
       </c>
       <c r="W7" t="n">
-        <v>895.7157139915105</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="X7" t="n">
-        <v>683.7982798220356</v>
+        <v>1085.413519241705</v>
       </c>
       <c r="Y7" t="n">
-        <v>683.7982798220356</v>
+        <v>864.6209400981746</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1559.116588708439</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1190.154071768027</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3273.217780088221</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3273.217780088221</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3019.687303362058</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2688.624416018487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2335.855760748373</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2335.855760748373</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y8" t="n">
-        <v>1945.716428772561</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>617.5020034330385</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>617.5020034330385</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>617.5020034330385</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>469.5889098506453</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>322.698962352735</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>154.9961257274539</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>154.9961257274539</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330385</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>617.5020034330385</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5348780504994</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1164.975922024269</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>944.1833428807391</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>120.680066384834</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,34 +5746,34 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3966.646661122954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3738.657110224937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3517.864531081407</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,13 +5983,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3192.420589669523</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>4221.331149328841</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>3966.646661122954</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.229491085994</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3594.861633643293</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3374.069054499763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,34 +6205,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6244,34 +6244,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424041</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>526.5658826424041</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>378.6527890600109</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>378.6527890600109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>211.4566897748909</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="29">
@@ -6457,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3715.300272664238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>695.5020655703109</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>545.3854261579752</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>397.4723325755821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>250.5823850776717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>250.5823850776717</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7016,25 +7016,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3025.224490384403</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2856.288307456496</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>2856.288307456496</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.375213874103</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3945.072255293151</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3945.072255293151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3655.65508525619</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3427.665534358173</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3206.872955214643</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7259,19 +7259,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2091.550948547922</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>2565.513299557012</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L42" t="n">
-        <v>3060.83890577277</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M42" t="n">
-        <v>3087.702309109632</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>3715.300272664238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>4267.210002903525</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>915.1035305473698</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>915.1035305473698</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>764.9868911350341</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>617.0737975526409</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3809.631423131744</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4361.541153371031</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L3" t="n">
-        <v>14.25823202432872</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.4490126143854</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>65.16817853567895</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>37.12601365260466</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.25795120238422</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>144.1654765207633</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>23.83108638657406</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>185.1299285698844</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>66.36248435538656</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>80.9846548059233</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>12.68816929391107</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>181.727993418995</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>14.48117232036716</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>714792.490238928</v>
+        <v>714792.4902389279</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>714792.4902389279</v>
+        <v>714792.490238928</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>714792.490238928</v>
+        <v>714792.4902389279</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>714792.490238928</v>
+        <v>714792.4902389279</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>714792.490238928</v>
+        <v>714792.4902389279</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312481</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="K2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.274728755</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287557</v>
@@ -26374,7 +26374,7 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,43 +26423,43 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.2351281079</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756646</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756644</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="M4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-626004.2810766187</v>
+        <v>-626004.2810766186</v>
       </c>
       <c r="C6" t="n">
-        <v>488747.5024993009</v>
+        <v>488747.5024993008</v>
       </c>
       <c r="D6" t="n">
         <v>329326.2325014087</v>
       </c>
       <c r="E6" t="n">
-        <v>270381.0827407367</v>
+        <v>270033.7034863798</v>
       </c>
       <c r="F6" t="n">
-        <v>595793.5445480916</v>
+        <v>595446.165293735</v>
       </c>
       <c r="G6" t="n">
-        <v>595793.5445480918</v>
+        <v>595446.1652937349</v>
       </c>
       <c r="H6" t="n">
-        <v>595793.5445480915</v>
+        <v>595446.1652937349</v>
       </c>
       <c r="I6" t="n">
-        <v>595793.5445480919</v>
+        <v>595446.165293735</v>
       </c>
       <c r="J6" t="n">
-        <v>428188.3667381094</v>
+        <v>427840.9874837521</v>
       </c>
       <c r="K6" t="n">
-        <v>595793.5445480919</v>
+        <v>595446.1652937344</v>
       </c>
       <c r="L6" t="n">
-        <v>547499.5745399011</v>
+        <v>547152.1952855443</v>
       </c>
       <c r="M6" t="n">
-        <v>510738.5166125799</v>
+        <v>510391.1373582229</v>
       </c>
       <c r="N6" t="n">
-        <v>595793.5445480919</v>
+        <v>595446.1652937346</v>
       </c>
       <c r="O6" t="n">
-        <v>595793.5445480916</v>
+        <v>595446.1652937348</v>
       </c>
       <c r="P6" t="n">
-        <v>595793.5445480921</v>
+        <v>595446.165293735</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26977,31 +26977,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>87.55249310189903</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>155.836609535854</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>124.4594060963059</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>187.631515061267</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>345.3792765032383</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>96.71697272652412</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27824,7 +27824,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,16 +27833,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>218.8480222249919</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>15.91139556125705</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>57.32360068243616</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>8.753251207520307</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>653.3850396373771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>652.047896915769</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>653.3850396373771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33736,13 +33736,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>248.5245325067415</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>231.5286848890172</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34213,13 +34213,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>169.2687847673327</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34231,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>230.9747494877446</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L3" t="n">
-        <v>311.9385926621788</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
@@ -34792,7 +34792,7 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
@@ -34801,7 +34801,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>302.9297349452399</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>510.7887951929326</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,13 +35734,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>509.9138629937507</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>510.7887951929326</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>114.5501250924112</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>92.97430510914305</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>27.13475084531435</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37879,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>97.0003420734144</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3183008.94630669</v>
+        <v>3184769.476609476</v>
       </c>
     </row>
     <row r="7">
@@ -664,16 +664,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>208.2474868886328</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>119.1056918783347</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>283.0907816146557</v>
       </c>
       <c r="V4" t="n">
-        <v>64.50612826256102</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>159.7201202482297</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>26.73524267227025</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>33.28962109883609</v>
+        <v>196.4017961483597</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7944255145775</v>
+        <v>274.7944255145766</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>61.42978662487896</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>36.39209596079273</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>32.27552175740387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>41.55695577161148</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>139.7072979240948</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1246.899958573734</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C2" t="n">
-        <v>877.9374416333219</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D2" t="n">
-        <v>877.9374416333219</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>672.5836882148155</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>261.597783425208</v>
       </c>
       <c r="G2" t="n">
         <v>51.24678656800311</v>
@@ -4330,25 +4330,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2317.33134125154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2317.33134125154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1986.268453907969</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1633.499798637855</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1633.499798637855</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1633.499798637855</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4521,16 +4521,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1350.495835615249</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.288414758779</v>
+        <v>1350.495835615249</v>
       </c>
       <c r="W4" t="n">
-        <v>1281.871244721818</v>
+        <v>1061.078665578288</v>
       </c>
       <c r="X4" t="n">
-        <v>1053.881693823801</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="Y4" t="n">
         <v>833.0891146802707</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1330.099343395678</v>
+        <v>1444.69056485657</v>
       </c>
       <c r="C5" t="n">
-        <v>1330.099343395678</v>
+        <v>1075.728047916158</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>1075.728047916158</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>689.9397953179139</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>278.9538905283063</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4570,10 +4570,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2535.3340327716</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2326.588391377424</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2073.007330641604</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2073.007330641604</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>1720.23867537149</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X5" t="n">
-        <v>1720.23867537149</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1330.099343395678</v>
+        <v>1831.290404920692</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4649,25 +4649,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.9724752679349</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>514.036292340028</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4725,25 +4725,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1602.820240176683</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W7" t="n">
-        <v>1313.403070139722</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X7" t="n">
-        <v>1085.413519241705</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.6209400981746</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="8">
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,19 +4834,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
         <v>2731.767278738087</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5117,13 +5117,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2343.157686942974</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2123.556221965915</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5524,16 +5524,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5697,13 +5697,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
         <v>1746.193029533436</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2414.36154645157</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2125.286319795768</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1870.601831589881</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1581.18466155292</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,25 +6694,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7074,25 +7074,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.0218491516692</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>144.6341900408519</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>43.72409101823415</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>185.1299285698844</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8770068749577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>714792.490238928</v>
+        <v>714792.4902389279</v>
       </c>
     </row>
     <row r="11">
@@ -26316,7 +26316,7 @@
         <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312477</v>
@@ -26325,37 +26325,37 @@
         <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="H2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,7 +26423,7 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
@@ -26450,13 +26450,13 @@
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
+        <v>9337.200356756672</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.200356756653</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26524,46 +26524,46 @@
         <v>-626004.2810766186</v>
       </c>
       <c r="C6" t="n">
-        <v>488747.5024993008</v>
+        <v>488747.5024993009</v>
       </c>
       <c r="D6" t="n">
         <v>329326.2325014087</v>
       </c>
       <c r="E6" t="n">
-        <v>270033.7034863798</v>
+        <v>270346.3448153008</v>
       </c>
       <c r="F6" t="n">
-        <v>595446.165293735</v>
+        <v>595758.8066226564</v>
       </c>
       <c r="G6" t="n">
-        <v>595446.1652937349</v>
+        <v>595758.8066226565</v>
       </c>
       <c r="H6" t="n">
-        <v>595446.1652937349</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="I6" t="n">
-        <v>595446.165293735</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="J6" t="n">
-        <v>427840.9874837521</v>
+        <v>428153.6288126736</v>
       </c>
       <c r="K6" t="n">
-        <v>595446.1652937344</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="L6" t="n">
-        <v>547152.1952855443</v>
+        <v>547464.8366144656</v>
       </c>
       <c r="M6" t="n">
-        <v>510391.1373582229</v>
+        <v>510703.7786871445</v>
       </c>
       <c r="N6" t="n">
-        <v>595446.1652937346</v>
+        <v>595758.8066226559</v>
       </c>
       <c r="O6" t="n">
-        <v>595446.1652937348</v>
+        <v>595758.8066226561</v>
       </c>
       <c r="P6" t="n">
-        <v>595446.165293735</v>
+        <v>595758.8066226559</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>203.3002158843212</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>87.55249310189903</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27593,10 +27593,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>3.136372506544888</v>
       </c>
       <c r="V4" t="n">
-        <v>187.631515061267</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>251.8275825247243</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>96.71697272652412</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>218.8480222249919</v>
+        <v>55.73584717546831</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.4435131414761</v>
+        <v>111.443513141477</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="36">
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
